--- a/Files/invetory/units_data.xlsx
+++ b/Files/invetory/units_data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASER\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEEEAAE-5224-4395-BFDA-052BD5609415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
   <si>
     <t>Project</t>
   </si>
@@ -88,12 +82,6 @@
     <t>Payable to Developers</t>
   </si>
   <si>
-    <t>A101</t>
-  </si>
-  <si>
-    <t>B202</t>
-  </si>
-  <si>
     <t>10ft</t>
   </si>
   <si>
@@ -136,20 +124,98 @@
     <t>Sell</t>
   </si>
   <si>
-    <t>Elite Apartments</t>
-  </si>
-  <si>
     <t>Studio</t>
   </si>
   <si>
     <t>Office</t>
+  </si>
+  <si>
+    <t>Gulberg</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>BedRoom</t>
+  </si>
+  <si>
+    <t>Manage</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>B209</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Addional Rooms</t>
+  </si>
+  <si>
+    <t>Addional Rooms 2</t>
+  </si>
+  <si>
+    <t>Addional Rooms 3</t>
+  </si>
+  <si>
+    <t>Addional Rooms 4</t>
+  </si>
+  <si>
+    <t>No. of Washroom</t>
+  </si>
+  <si>
+    <t>Prayer Room</t>
+  </si>
+  <si>
+    <t>Pet Room</t>
+  </si>
+  <si>
+    <t>Storage Room</t>
+  </si>
+  <si>
+    <t>Teen Lounge / Kids' Playroom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,13 +263,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -266,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,27 +378,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,24 +412,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,40 +587,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" customWidth="1"/>
-    <col min="17" max="17" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" customWidth="1"/>
-    <col min="22" max="22" width="23.5546875" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="25.28515625" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" customWidth="1"/>
+    <col min="26" max="26" width="24" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,22 +692,37 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
       <c r="F2">
         <v>1200</v>
@@ -667,25 +731,25 @@
         <v>1000</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>39</v>
       </c>
       <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O2">
         <v>500000</v>
@@ -708,22 +772,28 @@
       <c r="V2">
         <v>200000</v>
       </c>
+      <c r="W2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3">
         <v>1500</v>
@@ -738,19 +808,19 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O3">
         <v>800000</v>
@@ -772,6 +842,586 @@
       </c>
       <c r="V3">
         <v>400000</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>1500</v>
+      </c>
+      <c r="G4">
+        <v>1300</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>800000</v>
+      </c>
+      <c r="P4">
+        <v>850000</v>
+      </c>
+      <c r="Q4">
+        <v>820000</v>
+      </c>
+      <c r="S4">
+        <v>8000</v>
+      </c>
+      <c r="T4">
+        <v>7800</v>
+      </c>
+      <c r="U4">
+        <v>400000</v>
+      </c>
+      <c r="V4">
+        <v>400000</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5">
+        <v>1300</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5">
+        <v>800000</v>
+      </c>
+      <c r="P5">
+        <v>850000</v>
+      </c>
+      <c r="Q5">
+        <v>820000</v>
+      </c>
+      <c r="S5">
+        <v>8000</v>
+      </c>
+      <c r="T5">
+        <v>7800</v>
+      </c>
+      <c r="U5">
+        <v>400000</v>
+      </c>
+      <c r="V5">
+        <v>400000</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+      <c r="G6">
+        <v>1300</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6">
+        <v>800000</v>
+      </c>
+      <c r="P6">
+        <v>850000</v>
+      </c>
+      <c r="Q6">
+        <v>820000</v>
+      </c>
+      <c r="S6">
+        <v>8000</v>
+      </c>
+      <c r="T6">
+        <v>7800</v>
+      </c>
+      <c r="U6">
+        <v>400000</v>
+      </c>
+      <c r="V6">
+        <v>400000</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>1500</v>
+      </c>
+      <c r="G7">
+        <v>1300</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7">
+        <v>800000</v>
+      </c>
+      <c r="P7">
+        <v>850000</v>
+      </c>
+      <c r="Q7">
+        <v>820000</v>
+      </c>
+      <c r="S7">
+        <v>8000</v>
+      </c>
+      <c r="T7">
+        <v>7800</v>
+      </c>
+      <c r="U7">
+        <v>400000</v>
+      </c>
+      <c r="V7">
+        <v>400000</v>
+      </c>
+      <c r="W7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>1500</v>
+      </c>
+      <c r="G8">
+        <v>1300</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8">
+        <v>800000</v>
+      </c>
+      <c r="P8">
+        <v>850000</v>
+      </c>
+      <c r="Q8">
+        <v>820000</v>
+      </c>
+      <c r="S8">
+        <v>8000</v>
+      </c>
+      <c r="T8">
+        <v>7800</v>
+      </c>
+      <c r="U8">
+        <v>400000</v>
+      </c>
+      <c r="V8">
+        <v>400000</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>1500</v>
+      </c>
+      <c r="G9">
+        <v>1300</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9">
+        <v>800000</v>
+      </c>
+      <c r="P9">
+        <v>850000</v>
+      </c>
+      <c r="Q9">
+        <v>820000</v>
+      </c>
+      <c r="S9">
+        <v>8000</v>
+      </c>
+      <c r="T9">
+        <v>7800</v>
+      </c>
+      <c r="U9">
+        <v>400000</v>
+      </c>
+      <c r="V9">
+        <v>400000</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>1500</v>
+      </c>
+      <c r="G10">
+        <v>1300</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10">
+        <v>800000</v>
+      </c>
+      <c r="P10">
+        <v>850000</v>
+      </c>
+      <c r="Q10">
+        <v>820000</v>
+      </c>
+      <c r="S10">
+        <v>8000</v>
+      </c>
+      <c r="T10">
+        <v>7800</v>
+      </c>
+      <c r="U10">
+        <v>400000</v>
+      </c>
+      <c r="V10">
+        <v>400000</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>1500</v>
+      </c>
+      <c r="G11">
+        <v>1300</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11">
+        <v>800000</v>
+      </c>
+      <c r="P11">
+        <v>850000</v>
+      </c>
+      <c r="Q11">
+        <v>820000</v>
+      </c>
+      <c r="S11">
+        <v>8000</v>
+      </c>
+      <c r="T11">
+        <v>7800</v>
+      </c>
+      <c r="U11">
+        <v>400000</v>
+      </c>
+      <c r="V11">
+        <v>400000</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
